--- a/public/templates/farmer-bulk-upload-template-with-validation.xlsx
+++ b/public/templates/farmer-bulk-upload-template-with-validation.xlsx
@@ -89,9 +89,6 @@
     <t xml:space="preserve">• districtName* - Full district name</t>
   </si>
   <si>
-    <t xml:space="preserve">• organizationName* - Organization/cooperative name</t>
-  </si>
-  <si>
     <t xml:space="preserve">• idType* - Use dropdown: ghana_card, voters_id, passport, drivers_license</t>
   </si>
   <si>
@@ -113,7 +110,7 @@
     <t xml:space="preserve">FARM FIELDS (Required fields marked with *):</t>
   </si>
   <si>
-    <t xml:space="preserve">• farmerRow* - Row number of corresponding farmer (1, 2, 3, etc.)</t>
+    <t xml:space="preserve">• farmerRow* - Row number of corresponding farmer (2, 3, 4, etc. - header is row 1)</t>
   </si>
   <si>
     <t xml:space="preserve">• farmName* - Text, minimum 1 character</t>
@@ -128,22 +125,25 @@
     <t xml:space="preserve">• soilType - Use dropdown: sandy, clay, loamy, silt, rocky</t>
   </si>
   <si>
-    <t xml:space="preserve">• locationLat - Latitude coordinate (optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• locationLng - Longitude coordinate (optional)</t>
+    <t xml:space="preserve">• locationLat - Latitude coordinate (optional, -90 to 90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• locationLng - Longitude coordinate (optional, -180 to 180)</t>
   </si>
   <si>
     <t xml:space="preserve">🔗 LINKING FARMERS TO FARMS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Each farm must reference its farmer by row number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example: If John Doe is in row 1 of Farmers sheet,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all his farms should have farmerRow = 1 in Farms sheet.</t>
+    <t xml:space="preserve">Each farm must reference its farmer by Excel row number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: If John Doe is in row 2 of Farmers sheet,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his farms should have farmerRow = 2 in Farms sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Row 1 is the header, so first farmer is row 2.</t>
   </si>
   <si>
     <t xml:space="preserve">✅ DATA VALIDATION:</t>
@@ -191,9 +191,6 @@
     <t xml:space="preserve">districtName*</t>
   </si>
   <si>
-    <t xml:space="preserve">organizationName*</t>
-  </si>
-  <si>
     <t xml:space="preserve">idType*</t>
   </si>
   <si>
@@ -236,10 +233,7 @@
     <t xml:space="preserve">House 12, Market Street</t>
   </si>
   <si>
-    <t xml:space="preserve">Birim Central Municipal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akim Oda Farmers Association</t>
+    <t xml:space="preserve">Accra Metropolitan</t>
   </si>
   <si>
     <t xml:space="preserve">ghana_card</t>
@@ -278,10 +272,7 @@
     <t xml:space="preserve">Plot 45, Chief Palace Road</t>
   </si>
   <si>
-    <t xml:space="preserve">West Akim Municipal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bunso Cooperative Society</t>
+    <t xml:space="preserve">Kumasi Metropolitan</t>
   </si>
   <si>
     <t xml:space="preserve">voters_id</t>
@@ -314,10 +305,7 @@
     <t xml:space="preserve">Near Methodist Church</t>
   </si>
   <si>
-    <t xml:space="preserve">East Akim Municipal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyebi Farmers Union</t>
+    <t xml:space="preserve">Tamale Metropolitan</t>
   </si>
   <si>
     <t xml:space="preserve">passport</t>
@@ -434,34 +422,43 @@
     <t xml:space="preserve">Sample Organizations</t>
   </si>
   <si>
+    <t xml:space="preserve">Demo Farmers Cooperative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Agricultural Society</t>
+  </si>
+  <si>
     <t xml:space="preserve">other</t>
   </si>
   <si>
+    <t xml:space="preserve">Sample Farmers Union</t>
+  </si>
+  <si>
     <t xml:space="preserve">drivers_license</t>
   </si>
   <si>
-    <t xml:space="preserve">Akuapem North Municipal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Region Farmers Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akuapem South District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocoa Farmers Cooperative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yilo Krobo Municipal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice Farmers Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Manya Krobo District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Manya Krobo Municipal</t>
+    <t xml:space="preserve">Cape Coast Metropolitan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example Agro Cooperative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takoradi Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial Farmers Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo Agricultural Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolgatanga Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wa Municipal</t>
   </si>
 </sst>
 </file>
@@ -586,9 +583,6 @@
     <font>
       <b/>
     </font>
-    <font>
-      <b/>
-    </font>
   </fonts>
   <fills>
     <fill>
@@ -714,11 +708,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="E3F2FD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="E8F5E8"/>
       </patternFill>
     </fill>
@@ -784,13 +773,6 @@
     </fill>
   </fills>
   <borders>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border>
       <left/>
       <right/>
@@ -1146,9 +1128,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1582,12 +1561,12 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1627,12 +1606,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="6">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -1768,157 +1747,145 @@
       <c r="O1" t="s" s="23">
         <v>59</v>
       </c>
-      <c r="P1" t="s" s="24">
-        <v>60</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
         <v>72</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>81</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>82</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>83</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
         <v>84</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
         <v>85</v>
-      </c>
-      <c r="L3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>93</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>94</v>
       </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4">
+      <c r="L4">
         <v>3</v>
       </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1964,43 +1931,43 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="25">
+      <c r="A1" t="s" s="24">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s" s="25">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s" s="28">
         <v>99</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="F1" t="s" s="29">
         <v>100</v>
       </c>
-      <c r="C1" t="s" s="27">
+      <c r="G1" t="s" s="30">
         <v>101</v>
-      </c>
-      <c r="D1" t="s" s="28">
-        <v>102</v>
-      </c>
-      <c r="E1" t="s" s="29">
-        <v>103</v>
-      </c>
-      <c r="F1" t="s" s="30">
-        <v>104</v>
-      </c>
-      <c r="G1" t="s" s="31">
-        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>5.5</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>6.0769</v>
@@ -2011,19 +1978,19 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>2.3</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F3">
         <v>6.0785</v>
@@ -2034,19 +2001,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>1.2</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F4">
         <v>6.0801</v>
@@ -2057,19 +2024,19 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>8.7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>6.1234</v>
@@ -2080,19 +2047,19 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>4.1</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>6.125</v>
@@ -2103,19 +2070,19 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>3.6</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>6.1266</v>
@@ -2126,19 +2093,19 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F8">
         <v>6.21</v>
@@ -2149,19 +2116,19 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>0.8</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>6.2116</v>
@@ -2172,19 +2139,19 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>6.2</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>6.2132</v>
@@ -2219,123 +2186,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="32">
+      <c r="A1" t="s" s="31">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s" s="32">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s" s="33">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s" s="34">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s" s="35">
         <v>129</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="F1" t="s" s="36">
         <v>130</v>
-      </c>
-      <c r="C1" t="s" s="34">
-        <v>131</v>
-      </c>
-      <c r="D1" t="s" s="35">
-        <v>132</v>
-      </c>
-      <c r="E1" t="s" s="36">
-        <v>133</v>
-      </c>
-      <c r="F1" t="s" s="37">
-        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
         <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
